--- a/controle_financeiro.xlsx
+++ b/controle_financeiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauac\OneDrive\Área de Trabalho\PROJETOS\FinDash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3930728-CFDA-4F97-9715-0FB149914A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F389C-F109-44E0-A93F-54591E3B0EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="100">
   <si>
     <t>01/01/2024</t>
   </si>
@@ -307,12 +307,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>10/01/2026</t>
-  </si>
-  <si>
-    <t>10/01/2027</t>
-  </si>
-  <si>
     <t>Vendas</t>
   </si>
   <si>
@@ -323,6 +317,9 @@
   </si>
   <si>
     <t>Produto3</t>
+  </si>
+  <si>
+    <t>transacao</t>
   </si>
 </sst>
 </file>
@@ -697,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,10 +812,10 @@
         <v>45301</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>89</v>
@@ -829,160 +826,160 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8">
-        <v>802</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>45301</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
         <v>97</v>
       </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9">
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11">
         <v>803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10">
-        <v>138.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11">
-        <v>4507.0600000000004</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
       </c>
       <c r="E12">
-        <v>160.37</v>
+        <v>138.44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
       </c>
       <c r="E13">
-        <v>4255.78</v>
+        <v>4507.0600000000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
       </c>
       <c r="E14">
-        <v>680.24</v>
+        <v>160.37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15">
-        <v>487.48</v>
+        <v>4255.78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
       </c>
       <c r="E16">
-        <v>401.08</v>
+        <v>680.24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -994,12 +991,12 @@
         <v>88</v>
       </c>
       <c r="E17">
-        <v>511.59</v>
+        <v>487.48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -1011,352 +1008,352 @@
         <v>88</v>
       </c>
       <c r="E18">
-        <v>115.18</v>
+        <v>401.08</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19">
-        <v>1464.88</v>
+        <v>511.59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20">
-        <v>1708.63</v>
+        <v>115.18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>89</v>
       </c>
       <c r="E21">
-        <v>707.12</v>
+        <v>1464.88</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>89</v>
       </c>
       <c r="E22">
-        <v>4172.5600000000004</v>
+        <v>1708.63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23">
-        <v>82.24</v>
+        <v>707.12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
       </c>
       <c r="E24">
-        <v>544.72</v>
+        <v>4172.5600000000004</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
       </c>
       <c r="E25">
-        <v>634</v>
+        <v>82.24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26">
-        <v>563.76</v>
+        <v>544.72</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>88</v>
       </c>
       <c r="E27">
-        <v>293.39</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28">
-        <v>3927.24</v>
+        <v>563.76</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
       </c>
       <c r="E29">
-        <v>794.3</v>
+        <v>293.39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
         <v>89</v>
       </c>
       <c r="E30">
-        <v>2618.31</v>
+        <v>3927.24</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31">
-        <v>2695.43</v>
+        <v>794.3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32">
-        <v>390.02</v>
+        <v>2618.31</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E33">
-        <v>798.92</v>
+        <v>2695.43</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
         <v>88</v>
       </c>
       <c r="E34">
-        <v>998.35</v>
+        <v>390.02</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
       </c>
       <c r="E35">
-        <v>919.3</v>
+        <v>798.92</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
       </c>
       <c r="E36">
-        <v>669.97</v>
+        <v>998.35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37">
-        <v>3259.24</v>
+        <v>919.3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38">
-        <v>1948</v>
+        <v>669.97</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
@@ -1368,346 +1365,380 @@
         <v>89</v>
       </c>
       <c r="E39">
-        <v>4632.53</v>
+        <v>3259.24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40">
-        <v>536.75</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41">
-        <v>324.48</v>
+        <v>4632.53</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
         <v>88</v>
       </c>
       <c r="E42">
-        <v>413.22</v>
+        <v>536.75</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
         <v>88</v>
       </c>
       <c r="E43">
-        <v>704.23</v>
+        <v>324.48</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
         <v>88</v>
       </c>
       <c r="E44">
-        <v>655.13</v>
+        <v>413.22</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
         <v>88</v>
       </c>
       <c r="E45">
-        <v>104.3</v>
+        <v>704.23</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46">
+        <v>655.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>59</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>78</v>
       </c>
-      <c r="D46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46">
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48">
         <v>187.84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>45004</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>71</v>
       </c>
-      <c r="D47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47">
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49">
         <v>962.42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>45007</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48">
-        <v>3765.69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49">
-        <v>421.82</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45009</v>
+        <v>45007</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50">
-        <v>717.67</v>
+        <v>3765.69</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
         <v>88</v>
       </c>
       <c r="E51">
-        <v>670.37</v>
+        <v>421.82</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>44</v>
+      <c r="A52" s="2">
+        <v>45009</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52">
-        <v>1530.53</v>
+        <v>717.67</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
         <v>88</v>
       </c>
       <c r="E53">
-        <v>466.22</v>
+        <v>670.37</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
         <v>89</v>
       </c>
       <c r="E54">
-        <v>944.47</v>
+        <v>1530.53</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
       </c>
       <c r="E55">
-        <v>800.68</v>
+        <v>466.22</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E56">
-        <v>468.44</v>
+        <v>944.47</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57">
-        <v>3355.62</v>
+        <v>800.68</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s">
         <v>88</v>
       </c>
       <c r="E58">
-        <v>195.57</v>
+        <v>468.44</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59">
+        <v>3355.62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60">
+        <v>195.57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>51</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>60</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" t="s">
         <v>75</v>
       </c>
-      <c r="D59" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59">
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61">
         <v>3410.58</v>
       </c>
     </row>
